--- a/LISTA CENTROS/REGISTRO DE PERSONAS NATURALES  COLABORADORES ACREDITADOS DE SENAME LEY Nº 20.032 AL 30 DE SEPTIEMBRE DE 2020.xlsx
+++ b/LISTA CENTROS/REGISTRO DE PERSONAS NATURALES  COLABORADORES ACREDITADOS DE SENAME LEY Nº 20.032 AL 30 DE SEPTIEMBRE DE 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\Desktop\Data Sename\Archivos listos para subir a dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SENAME\LISTA CENTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949DE45-A8F5-4246-B6D8-92FC759BD5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C9282-EC99-4883-A8BB-CE099EC4DA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AC26610-DB85-4004-8F63-5097B84772D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5AC26610-DB85-4004-8F63-5097B84772D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,165 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -500,6 +658,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0DBE798-8152-4AB8-9214-F4716A337D48}" name="Personas_Naturales" displayName="Personas_Naturales" ref="A2:G45" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:G45" xr:uid="{B28DB656-57C4-49EE-AEE1-DB6EEB2D036B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{855E4C8F-806E-43F5-B090-FADB2E8AB086}" name="Codreg" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{74E3D068-58F7-4CA3-B3C3-ED2361C41C8E}" name="REGIÓN" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3183F833-3EA7-40B2-A486-29D4383DDAF5}" name="PERSONAS NATURALES" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F1038FB6-1F61-481C-B78D-2C07A04E2D18}" name="CÉDULA DE IDENTIDAD" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E3485DF8-C239-4F66-B5D5-0E7D88C62BD4}" name="PROFESION" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{458392D2-011C-4A24-A5A8-364E5DB67006}" name="FOLIO" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6F5D4222-1391-4620-9520-868F282AE70B}" name="FECHA  INGRESO RECONOCIMIENTO" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,23 +975,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB42EF3-EC4C-41BF-91C1-911B345653F9}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
@@ -840,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -863,7 +1037,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -886,7 +1060,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -909,7 +1083,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>13</v>
       </c>
@@ -932,7 +1106,7 @@
         <v>38905</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>13</v>
       </c>
@@ -955,7 +1129,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -978,7 +1152,7 @@
         <v>38905</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -1001,7 +1175,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1024,7 +1198,7 @@
         <v>38945</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1047,7 +1221,7 @@
         <v>39015</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -1070,7 +1244,7 @@
         <v>39104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -1093,7 +1267,7 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1116,7 +1290,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -1139,7 +1313,7 @@
         <v>39317</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -1162,7 +1336,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -1185,7 +1359,7 @@
         <v>39392</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1208,7 +1382,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1231,7 +1405,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +1428,7 @@
         <v>39885</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -1277,7 +1451,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>10</v>
       </c>
@@ -1300,7 +1474,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10</v>
       </c>
@@ -1323,7 +1497,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>10</v>
       </c>
@@ -1346,7 +1520,7 @@
         <v>39953</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -1369,7 +1543,7 @@
         <v>39953</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -1392,7 +1566,7 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -1415,7 +1589,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -1438,7 +1612,7 @@
         <v>39976</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -1461,7 +1635,7 @@
         <v>40056</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -1484,7 +1658,7 @@
         <v>40197</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10</v>
       </c>
@@ -1507,7 +1681,7 @@
         <v>40359</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1530,7 +1704,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -1553,7 +1727,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1576,7 +1750,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -1599,7 +1773,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>15</v>
       </c>
@@ -1622,7 +1796,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>13</v>
       </c>
@@ -1645,7 +1819,7 @@
         <v>41653</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>13</v>
       </c>
@@ -1668,7 +1842,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>13</v>
       </c>
@@ -1691,7 +1865,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>13</v>
       </c>
@@ -1714,7 +1888,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -1737,7 +1911,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>13</v>
       </c>
@@ -1760,7 +1934,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -1783,7 +1957,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>8</v>
       </c>
@@ -1806,7 +1980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>8</v>
       </c>
@@ -1830,8 +2004,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H46" xr:uid="{A0ABA771-0B40-4F27-833F-16B3A673E489}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1840,16 +2016,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1860,7 +2036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>119</v>
       </c>
